--- a/NewCo/Postpaid/Raw-Postpaid_Metric.xlsx
+++ b/NewCo/Postpaid/Raw-Postpaid_Metric.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -541,12 +541,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B2S010200</t>
+          <t>B2S020200</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Postpaid Churn Subs B2C</t>
+          <t>Postpaid Churn Subs B2B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -560,22 +560,22 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1.161704</v>
+        <v>0.105287</v>
       </c>
       <c r="K2" t="n">
-        <v>17.443672</v>
+        <v>1.541206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.829901225668</v>
+        <v>0.09537568022399999</v>
       </c>
       <c r="M2" t="n">
-        <v>12.651134303691</v>
+        <v>1.450128546996</v>
       </c>
       <c r="N2" t="n">
-        <v>0.933014</v>
+        <v>0.09906</v>
       </c>
       <c r="O2" t="n">
-        <v>14.3615</v>
+        <v>1.52433</v>
       </c>
       <c r="P2" t="n">
         <v>20230712</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DB2S010200</t>
+          <t>DB2S020200</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Postpaid Churn Subs B2C : DTAC</t>
+          <t>Postpaid Churn Subs B2B : DTAC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -626,22 +626,22 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.429069</v>
+        <v>0.048199</v>
       </c>
       <c r="K3" t="n">
-        <v>6.410927</v>
+        <v>0.649085</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4297878063130001</v>
+        <v>0.052752970547</v>
       </c>
       <c r="M3" t="n">
-        <v>6.530661045625999</v>
+        <v>0.797164417965</v>
       </c>
       <c r="N3" t="n">
-        <v>0.219511</v>
+        <v>0.022878</v>
       </c>
       <c r="O3" t="n">
-        <v>3.512176</v>
+        <v>0.366048</v>
       </c>
       <c r="P3" t="n">
         <v>20230712</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -673,12 +673,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TB2S010200</t>
+          <t>TB2S020200</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Postpaid Churn Subs B2C : TMH</t>
+          <t>Postpaid Churn Subs B2B : TMH</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.734451</v>
+        <v>0.057298</v>
       </c>
       <c r="K4" t="n">
-        <v>11.038193</v>
+        <v>0.892751</v>
       </c>
       <c r="L4" t="n">
-        <v>0.403099</v>
+        <v>0.043026</v>
       </c>
       <c r="M4" t="n">
-        <v>6.12943</v>
+        <v>0.654174</v>
       </c>
       <c r="N4" t="n">
-        <v>0.730189</v>
+        <v>0.07796699999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>10.882696</v>
+        <v>1.161852</v>
       </c>
       <c r="P4" t="n">
         <v>20230712</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B2R010100</t>
+          <t>B2R020100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Postpaid Revenue B2C</t>
+          <t>Postpaid Revenue B2B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25934.95751384558</v>
+        <v>2664.719053342096</v>
       </c>
       <c r="K5" t="n">
-        <v>392827.8597062689</v>
+        <v>51114.91435865188</v>
       </c>
       <c r="L5" t="n">
-        <v>34683.18971866391</v>
+        <v>3181.272613127952</v>
       </c>
       <c r="M5" t="n">
-        <v>524122.0513846873</v>
+        <v>59206.75125355783</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -805,12 +805,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DB2R010100</t>
+          <t>DB2R020100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Postpaid Revenue B2C : DTAC</t>
+          <t>Postpaid Revenue B2B : DTAC</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>11959.7512546757</v>
+        <v>903.4845246531</v>
       </c>
       <c r="K6" t="n">
-        <v>174998.760910894</v>
+        <v>21038.7807504977</v>
       </c>
       <c r="L6" t="n">
-        <v>12087.85616471322</v>
+        <v>978.975299053496</v>
       </c>
       <c r="M6" t="n">
-        <v>176602.3410746171</v>
+        <v>22982.43268712099</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -871,12 +871,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TB2R010100</t>
+          <t>TB2R020100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Postpaid Revenue B2C : TMH</t>
+          <t>Postpaid Revenue B2B : TMH</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -890,16 +890,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>13975.20625916988</v>
+        <v>1761.234528688996</v>
       </c>
       <c r="K7" t="n">
-        <v>217829.0987953749</v>
+        <v>30076.13360815418</v>
       </c>
       <c r="L7" t="n">
-        <v>14502.32346225069</v>
+        <v>1428.201325394457</v>
       </c>
       <c r="M7" t="n">
-        <v>225624.1590798702</v>
+        <v>24023.75938813684</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -937,12 +937,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B2S010100</t>
+          <t>B2S020100</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Postpaid Activation Subs B2C</t>
+          <t>Postpaid Activation Subs B2B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1.088272</v>
+        <v>0.112763</v>
       </c>
       <c r="K8" t="n">
-        <v>16.805539</v>
+        <v>1.714836</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1003,12 +1003,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DB2S010100</t>
+          <t>DB2S020100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Postpaid Activation Subs B2C : DTAC</t>
+          <t>Postpaid Activation Subs B2B : DTAC</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.365939</v>
+        <v>0.048009</v>
       </c>
       <c r="K9" t="n">
-        <v>5.595285</v>
+        <v>0.647216</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TB2S010100</t>
+          <t>TB2S020100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Postpaid Activation Subs B2C : TMH</t>
+          <t>Postpaid Activation Subs B2B : TMH</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.729155</v>
+        <v>0.06476</v>
       </c>
       <c r="K10" t="n">
-        <v>11.223898</v>
+        <v>1.067632</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8784752051612904</v>
+        <v>0.029143</v>
       </c>
       <c r="M10" t="n">
-        <v>13.26223210612903</v>
+        <v>0.438139</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1135,12 +1135,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B2S010400</t>
+          <t>B2S020300</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Postpaid Net Add B2C</t>
+          <t>Postpaid Net Add B2B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.081745</v>
+        <v>0.005991</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.663072</v>
+        <v>0.169175</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DB2S010400</t>
+          <t>DB2S020300</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Postpaid Net Add B2C : DTAC</t>
+          <t>Postpaid Net Add B2B : DTAC</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.06313000000000001</v>
+        <v>-0.00019</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.815642</v>
+        <v>-0.001869</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1267,12 +1267,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TB2S010400</t>
+          <t>TB2S020300</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Postpaid Net Add B2C : TMH</t>
+          <t>Postpaid Net Add B2B : TMH</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.017356</v>
+        <v>0.00651</v>
       </c>
       <c r="K13" t="n">
-        <v>0.156347</v>
+        <v>0.172031</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
